--- a/data/FOREX_6A_historical.xlsx
+++ b/data/FOREX_6A_historical.xlsx
@@ -7318,7 +7318,9 @@
       <c r="CD33" t="n">
         <v>1915.04617583333</v>
       </c>
-      <c r="CE33" t="inlineStr"/>
+      <c r="CE33" t="n">
+        <v>1975.95088138768</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -15229,13 +15231,13 @@
         <v>0.803921647747605</v>
       </c>
       <c r="BO71" t="n">
-        <v>0.803800192161416</v>
+        <v>0.8038001921614421</v>
       </c>
       <c r="BP71" t="n">
-        <v>0.7964327309490959</v>
+        <v>0.7964327309491021</v>
       </c>
       <c r="BQ71" t="n">
-        <v>0.7296723999840879</v>
+        <v>0.729672399984083</v>
       </c>
       <c r="BR71" t="n">
         <v>0.679922680042729</v>
@@ -15244,40 +15246,40 @@
         <v>0.716957702016136</v>
       </c>
       <c r="BT71" t="n">
-        <v>0.754308990105979</v>
+        <v>0.754308990105961</v>
       </c>
       <c r="BU71" t="n">
-        <v>0.7184138986533219</v>
+        <v>0.718413898653317</v>
       </c>
       <c r="BV71" t="n">
         <v>0.7783381204168121</v>
       </c>
       <c r="BW71" t="n">
-        <v>0.752945122702002</v>
+        <v>0.752945122701996</v>
       </c>
       <c r="BX71" t="n">
-        <v>0.752728196932591</v>
+        <v>0.752728196932603</v>
       </c>
       <c r="BY71" t="n">
         <v>0.901296423367096</v>
       </c>
       <c r="BZ71" t="n">
-        <v>0.903421436257288</v>
+        <v>0.903421436257263</v>
       </c>
       <c r="CA71" t="n">
-        <v>0.88520550826938</v>
+        <v>0.8852055082693721</v>
       </c>
       <c r="CB71" t="n">
-        <v>0.846772667108096</v>
+        <v>0.8467726671081111</v>
       </c>
       <c r="CC71" t="n">
-        <v>0.893276257067393</v>
+        <v>0.893276257067409</v>
       </c>
       <c r="CD71" t="n">
-        <v>0.875506396987983</v>
+        <v>0.875506396987998</v>
       </c>
       <c r="CE71" t="n">
-        <v>0.845494138890436</v>
+        <v>0.84549413889045</v>
       </c>
     </row>
     <row r="72">
@@ -16805,7 +16807,9 @@
       <c r="CD78" t="n">
         <v>51.5016603661723</v>
       </c>
-      <c r="CE78" t="inlineStr"/>
+      <c r="CE78" t="n">
+        <v>51.4844438783833</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -19998,7 +20002,9 @@
       <c r="CD93" t="n">
         <v>93.5098072136213</v>
       </c>
-      <c r="CE93" t="inlineStr"/>
+      <c r="CE93" t="n">
+        <v>89.2266365116304</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -23612,37 +23618,37 @@
         <v>72.1008350178621</v>
       </c>
       <c r="BQ110" t="n">
-        <v>67.31666666666671</v>
+        <v>67.31763812428569</v>
       </c>
       <c r="BR110" t="n">
-        <v>69.1758333333333</v>
+        <v>69.17531981622599</v>
       </c>
       <c r="BS110" t="n">
-        <v>77.3508333333333</v>
+        <v>77.35201229757899</v>
       </c>
       <c r="BT110" t="n">
-        <v>79.23333333333331</v>
+        <v>79.23315170454551</v>
       </c>
       <c r="BU110" t="n">
-        <v>88.8116666666667</v>
+        <v>88.8107699710456</v>
       </c>
       <c r="BV110" t="n">
-        <v>84.53</v>
+        <v>84.52960175735291</v>
       </c>
       <c r="BW110" t="n">
-        <v>86.12333333333331</v>
+        <v>86.1228788982654</v>
       </c>
       <c r="BX110" t="n">
-        <v>87.9225</v>
+        <v>87.9221638089727</v>
       </c>
       <c r="BY110" t="n">
-        <v>98.1791666666667</v>
+        <v>98.17845332652711</v>
       </c>
       <c r="BZ110" t="n">
-        <v>101.504166666667</v>
+        <v>101.504369498594</v>
       </c>
       <c r="CA110" t="n">
-        <v>103.41044618568</v>
+        <v>103.410004519014</v>
       </c>
       <c r="CB110" t="n">
         <v>101.301574049018</v>
@@ -25440,10 +25446,10 @@
         <v>14.4484270548333</v>
       </c>
       <c r="CD119" t="n">
-        <v>16.4731868743465</v>
+        <v>16.4591053903333</v>
       </c>
       <c r="CE119" t="n">
-        <v>14.7834351395784</v>
+        <v>14.7786782139167</v>
       </c>
     </row>
     <row r="120">
@@ -29021,7 +29027,9 @@
       <c r="CD136" t="n">
         <v>2813.2898353264</v>
       </c>
-      <c r="CE136" t="inlineStr"/>
+      <c r="CE136" t="n">
+        <v>2849.2886145414</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
@@ -29839,7 +29847,9 @@
       <c r="CD140" t="n">
         <v>69.465</v>
       </c>
-      <c r="CE140" t="inlineStr"/>
+      <c r="CE140" t="n">
+        <v>65.465</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
@@ -31858,7 +31868,9 @@
       <c r="CD149" t="n">
         <v>34.3421221197024</v>
       </c>
-      <c r="CE149" t="inlineStr"/>
+      <c r="CE149" t="n">
+        <v>35.1710166666667</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
@@ -33773,7 +33785,9 @@
       <c r="CD158" t="n">
         <v>3.45997438644787</v>
       </c>
-      <c r="CE158" t="inlineStr"/>
+      <c r="CE158" t="n">
+        <v>3.50877192982456</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
@@ -38366,7 +38380,9 @@
       <c r="CD181" t="n">
         <v>8.213412909672609</v>
       </c>
-      <c r="CE181" t="inlineStr"/>
+      <c r="CE181" t="n">
+        <v>8.03010299104932</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
@@ -42961,7 +42977,9 @@
       <c r="CD202" t="n">
         <v>2.29956150787889</v>
       </c>
-      <c r="CE202" t="inlineStr"/>
+      <c r="CE202" t="n">
+        <v>2.26310728305551</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
@@ -45061,7 +45079,9 @@
       <c r="CD212" t="n">
         <v>42.0132916666667</v>
       </c>
-      <c r="CE212" t="inlineStr"/>
+      <c r="CE212" t="n">
+        <v>43.554575</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
@@ -45797,7 +45817,9 @@
       <c r="CD216" t="n">
         <v>23208.3683333333</v>
       </c>
-      <c r="CE216" t="inlineStr"/>
+      <c r="CE216" t="n">
+        <v>23159.7825925926</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
@@ -46194,7 +46216,7 @@
         <v>214.89</v>
       </c>
       <c r="BY218" t="n">
-        <v>231.199583333333</v>
+        <v>230.833333333333</v>
       </c>
       <c r="BZ218" t="n">
         <v>283.895833333333</v>
@@ -46206,12 +46228,14 @@
         <v>214.89</v>
       </c>
       <c r="CC218" t="n">
-        <v>490.9725</v>
+        <v>486.730922939068</v>
       </c>
       <c r="CD218" t="n">
-        <v>740.5</v>
-      </c>
-      <c r="CE218" t="inlineStr"/>
+        <v>743.005964356531</v>
+      </c>
+      <c r="CE218" t="n">
+        <v>1035.46718555887</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
@@ -46615,7 +46639,9 @@
       <c r="CD220" t="n">
         <v>18.3440926453379</v>
       </c>
-      <c r="CE220" t="inlineStr"/>
+      <c r="CE220" t="n">
+        <v>20.0184865859688</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
@@ -46824,7 +46850,9 @@
       <c r="CD221" t="n">
         <v>51.3290131226287</v>
       </c>
-      <c r="CE221" t="inlineStr"/>
+      <c r="CE221" t="n">
+        <v>88.5524472597436</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
